--- a/2021-2022-1 Arduino Programming Course Arrangement 应用电子32081.xlsx
+++ b/2021-2022-1 Arduino Programming Course Arrangement 应用电子32081.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo-InterOffice\Documents\GitHub\Arduino-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F0739F-A4E6-4084-8F57-9682B9D18162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D911959-FF4A-47FD-926C-49DAE33F6606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{56D46586-203F-4DA5-8833-0738A3BCF6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information 应用电子31981" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="138">
   <si>
     <t>Student ID(学号)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -484,6 +484,14 @@
   </si>
   <si>
     <t>多次反馈均为参加课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nov 29th</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group Project Leader</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,6 +959,9 @@
     <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,8 +971,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2010,13 +2021,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2490,9 +2501,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AC44C4-55D5-4851-BBF2-151A82E50550}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -2504,3139 +2518,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="23.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-    </row>
-    <row r="2" spans="1:28" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2">
-        <v>11</v>
-      </c>
-      <c r="O2" s="2">
-        <v>12</v>
-      </c>
-      <c r="P2" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>14</v>
-      </c>
-      <c r="R2" s="2">
-        <v>15</v>
-      </c>
-      <c r="S2" s="2">
-        <v>16</v>
-      </c>
-      <c r="T2" s="2">
-        <v>17</v>
-      </c>
-      <c r="U2" s="2">
-        <v>18</v>
-      </c>
-      <c r="V2" s="2">
-        <v>19</v>
-      </c>
-      <c r="W2" s="2">
-        <v>20</v>
-      </c>
-      <c r="X2" s="2">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>23</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>24</v>
-      </c>
-      <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z3" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA3" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA4" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA5" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z6" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA6" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z7" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA7" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA8" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z9" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA9" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z10" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA10" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z11" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA11" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA12" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z13" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA13" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA14" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA15" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA16" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA17" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA18" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z19" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA19" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA20" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA21" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA22" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA23" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z24" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA24" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z25" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA25" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA26" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z27" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA27" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z28" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA28" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z29" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA29" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA30" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA31" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z32" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA32" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z33" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA33" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z34" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA34" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="K35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="O35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="S35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="T35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="U35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="V35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="W35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="X35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA35" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="61"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:AA1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375647A9-497B-42E5-BA71-EBD6FD4DD3F3}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="131.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-    </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="47">
-        <v>0.94</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="47">
-        <v>0.88</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="47">
-        <v>0.94</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="47">
-        <v>0.85</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="47">
-        <v>0.76</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="33">
-        <v>44863</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="47">
-        <v>1</v>
-      </c>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="47">
-        <v>1</v>
-      </c>
-      <c r="G9" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EBC456-0353-452F-B62B-0A1B41F55AD0}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="20" customWidth="1"/>
-    <col min="6" max="9" width="10.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="21" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" style="21" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="20" customWidth="1"/>
-    <col min="15" max="16" width="10.6640625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="44.33203125" style="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>8</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -5654,6 +2537,3141 @@
       <c r="O1" s="60"/>
       <c r="P1" s="60"/>
       <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+    </row>
+    <row r="2" spans="1:28" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2">
+        <v>12</v>
+      </c>
+      <c r="P2" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2">
+        <v>15</v>
+      </c>
+      <c r="S2" s="2">
+        <v>16</v>
+      </c>
+      <c r="T2" s="2">
+        <v>17</v>
+      </c>
+      <c r="U2" s="2">
+        <v>18</v>
+      </c>
+      <c r="V2" s="2">
+        <v>19</v>
+      </c>
+      <c r="W2" s="2">
+        <v>20</v>
+      </c>
+      <c r="X2" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA5" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA6" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z7" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA7" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z8" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA8" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z9" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA9" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA10" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z11" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA11" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z12" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA12" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z13" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA13" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA14" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA15" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA16" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA17" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA18" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA19" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA20" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA21" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA22" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA23" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA24" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z25" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA25" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA26" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA27" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z28" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA28" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA29" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA30" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA31" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z32" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA32" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z33" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA33" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z34" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA34" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="S35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="T35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="U35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="V35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="W35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="X35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA35" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B37" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:AA1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375647A9-497B-42E5-BA71-EBD6FD4DD3F3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="124.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+    </row>
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="47">
+        <v>0.94</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="47">
+        <v>0.88</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="47">
+        <v>0.94</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0.85</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="47">
+        <v>0.76</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="47">
+        <v>1</v>
+      </c>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="47">
+        <v>1</v>
+      </c>
+      <c r="G9" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EBC456-0353-452F-B62B-0A1B41F55AD0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="20" customWidth="1"/>
+    <col min="6" max="9" width="10.33203125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="21" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="21" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="20" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.88671875" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5810,7 +5828,9 @@
         <v>88.2</v>
       </c>
       <c r="P4" s="30"/>
-      <c r="Q4" s="22"/>
+      <c r="Q4" s="62" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -5966,7 +5986,9 @@
         <v>91.2</v>
       </c>
       <c r="P7" s="30"/>
-      <c r="Q7" s="22"/>
+      <c r="Q7" s="62" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -6590,7 +6612,9 @@
         <v>69.400000000000006</v>
       </c>
       <c r="P19" s="30"/>
-      <c r="Q19" s="22"/>
+      <c r="Q19" s="62" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="20" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -6746,7 +6770,9 @@
         <v>87.4</v>
       </c>
       <c r="P22" s="30"/>
-      <c r="Q22" s="22"/>
+      <c r="Q22" s="62" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -6798,7 +6824,9 @@
         <v>90.3</v>
       </c>
       <c r="P23" s="30"/>
-      <c r="Q23" s="22"/>
+      <c r="Q23" s="62" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="24" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
@@ -6850,7 +6878,9 @@
         <v>77.3</v>
       </c>
       <c r="P24" s="30"/>
-      <c r="Q24" s="22"/>
+      <c r="Q24" s="62" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="25" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -7430,17 +7460,59 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="87" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="86" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7803,60 +7875,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <FolderType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <CultureName xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Student_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Templates xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <NotebookType xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Invited_Teachers xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Math_Settings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Owner xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Distribution_Groups xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <AppVersion xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <LMS_Mappings xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="63d2042b-7b91-46d4-baa3-a67d3669a720" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7881,18 +7920,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B63EFD-93A5-43DC-AEF0-DFD60352CEE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFF0ECA-8F3D-4871-93DE-8F766A9E7256}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="63d2042b-7b91-46d4-baa3-a67d3669a720"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="773ac416-4a36-402f-a3b6-d25dea329997"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>